--- a/OMAVIAT/Resources/schedule/b4-changes.xlsx
+++ b/OMAVIAT/Resources/schedule/b4-changes.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Data.OAT\2 Учебный отдел\04 Учебная часть\izmeneniya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72907F1A-F880-498A-9911-535005E743DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CB4A72-4ED3-41D6-8B95-E5F6D6234122}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11925" tabRatio="652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11925" tabRatio="652" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="02.09" sheetId="454" r:id="rId1"/>
+    <sheet name="03.09" sheetId="455" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'02.09'!$C$1:$C$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'03.09'!$C$1:$C$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="127">
   <si>
     <t>УТВЕРЖДАЮ</t>
   </si>
@@ -326,13 +328,97 @@
   </si>
   <si>
     <t>Э322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Изменения в расписании на 03 сентября 2024 (вторник) </t>
+  </si>
+  <si>
+    <t>Высоцкая Я.И.</t>
+  </si>
+  <si>
+    <t>ПЭ114</t>
+  </si>
+  <si>
+    <t>Вакансия</t>
+  </si>
+  <si>
+    <t>МатПД</t>
+  </si>
+  <si>
+    <t>Шуракова Н.А.</t>
+  </si>
+  <si>
+    <t>ПЭ223</t>
+  </si>
+  <si>
+    <t>Э213</t>
+  </si>
+  <si>
+    <t>ОсБухУч</t>
+  </si>
+  <si>
+    <t>Э223</t>
+  </si>
+  <si>
+    <t>БЖ</t>
+  </si>
+  <si>
+    <t>ОцПроек</t>
+  </si>
+  <si>
+    <t>Сим2</t>
+  </si>
+  <si>
+    <t>СЦ312</t>
+  </si>
+  <si>
+    <t>РеалТП</t>
+  </si>
+  <si>
+    <t>Заведующая  отделением                        Н.А. Шарипова</t>
+  </si>
+  <si>
+    <t>Сулейменова Ф.Е.*</t>
+  </si>
+  <si>
+    <t>Можайцев С.В.</t>
+  </si>
+  <si>
+    <t>ИнжГрПр</t>
+  </si>
+  <si>
+    <t>ИнЯзПД гр.1</t>
+  </si>
+  <si>
+    <t>Кокшина Т.Ю.</t>
+  </si>
+  <si>
+    <t>ОсТехМС</t>
+  </si>
+  <si>
+    <t>ИнЯзПД гр.2</t>
+  </si>
+  <si>
+    <t>МатВед</t>
+  </si>
+  <si>
+    <t>КТехДок</t>
+  </si>
+  <si>
+    <t>ПЭ431</t>
+  </si>
+  <si>
+    <t>РусЯзПД</t>
+  </si>
+  <si>
+    <t>Рыжкова О.В.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,6 +772,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -1139,7 +1231,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1181,21 +1273,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1210,6 +1287,39 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="84">
@@ -1613,8 +1723,8 @@
   </sheetPr>
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1736,42 +1846,42 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="21"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
+      <c r="A9" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
     </row>
     <row r="10" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -2130,8 +2240,8 @@
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="12"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="20"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="28"/>
     </row>
     <row r="19" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
@@ -2237,7 +2347,7 @@
       <c r="J21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="25"/>
+      <c r="K21" s="20"/>
       <c r="L21" s="12"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
@@ -2306,7 +2416,7 @@
       <c r="H23" s="9">
         <v>5</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="19">
         <v>41</v>
       </c>
       <c r="J23" s="9" t="s">
@@ -2677,7 +2787,7 @@
       <c r="E34" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="21" t="s">
         <v>79</v>
       </c>
       <c r="G34" s="5" t="s">
@@ -2846,7 +2956,7 @@
       <c r="H39" s="9">
         <v>3</v>
       </c>
-      <c r="I39" s="27">
+      <c r="I39" s="22">
         <v>30</v>
       </c>
       <c r="J39" s="9" t="s">
@@ -2950,7 +3060,7 @@
       <c r="H42" s="9">
         <v>5</v>
       </c>
-      <c r="I42" s="28" t="s">
+      <c r="I42" s="23" t="s">
         <v>86</v>
       </c>
       <c r="J42" s="9" t="s">
@@ -3176,7 +3286,7 @@
       <c r="C49" s="9">
         <v>1</v>
       </c>
-      <c r="D49" s="27">
+      <c r="D49" s="22">
         <f t="shared" ref="D49:F49" si="3">D46</f>
         <v>43</v>
       </c>
@@ -3297,6 +3407,7 @@
       <c r="K52" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="L52" s="14"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
@@ -3310,6 +3421,7 @@
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
+      <c r="L53" s="14"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
@@ -3320,9 +3432,10 @@
       <c r="F54" s="9"/>
       <c r="G54" s="5"/>
       <c r="H54" s="9"/>
-      <c r="I54" s="28"/>
+      <c r="I54" s="23"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
+      <c r="L54" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3335,4 +3448,1343 @@
   <pageMargins left="0.24" right="0.24" top="0.2" bottom="0.28999999999999998" header="0.2" footer="0.2"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5BD28C-050E-466D-8E18-09398BD8C009}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:N44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="7" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="7" style="8" customWidth="1"/>
+    <col min="8" max="8" width="6" style="8" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="8" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="8" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="24"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+    </row>
+    <row r="10" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9">
+        <v>43</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="9">
+        <v>2</v>
+      </c>
+      <c r="I11" s="9">
+        <v>43</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" s="15"/>
+      <c r="M11" s="16">
+        <v>1</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9">
+        <v>43</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9">
+        <v>43</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="15"/>
+      <c r="M12" s="16">
+        <v>2</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>2</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="9">
+        <v>6</v>
+      </c>
+      <c r="D13" s="9">
+        <v>45</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="9">
+        <v>6</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="16">
+        <v>3</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>2</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="9">
+        <v>4</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="9">
+        <v>4</v>
+      </c>
+      <c r="I14" s="9">
+        <v>31</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L14" s="15"/>
+      <c r="M14" s="16">
+        <v>4</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>2</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="9">
+        <v>5</v>
+      </c>
+      <c r="D15" s="9">
+        <v>46</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="9">
+        <v>5</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="16">
+        <v>5</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>2</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="9">
+        <v>5</v>
+      </c>
+      <c r="D16" s="9">
+        <v>111</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="9">
+        <v>5</v>
+      </c>
+      <c r="I16" s="9">
+        <v>111</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="L16" s="15"/>
+      <c r="M16" s="16">
+        <v>6</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>2</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="9">
+        <v>6</v>
+      </c>
+      <c r="D17" s="9">
+        <v>42</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="9">
+        <v>6</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+    </row>
+    <row r="18" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>2</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="9">
+        <v>4</v>
+      </c>
+      <c r="D18" s="9">
+        <v>46</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="9">
+        <v>4</v>
+      </c>
+      <c r="I18" s="9">
+        <v>111</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="28"/>
+    </row>
+    <row r="19" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>2</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="9">
+        <v>4</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="9">
+        <v>4</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L19" s="12"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>2</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="9">
+        <v>6</v>
+      </c>
+      <c r="D20" s="9">
+        <v>46</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="9">
+        <v>6</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>2</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="9">
+        <v>6</v>
+      </c>
+      <c r="D21" s="9">
+        <v>111</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="9">
+        <v>6</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>2</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="9">
+        <v>3</v>
+      </c>
+      <c r="D22" s="9">
+        <v>46</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="9">
+        <v>3</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="20"/>
+      <c r="L22" s="14"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>2</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="9">
+        <v>3</v>
+      </c>
+      <c r="D23" s="19">
+        <v>24</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="9">
+        <v>3</v>
+      </c>
+      <c r="I23" s="23">
+        <v>24</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>2</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="9">
+        <v>4</v>
+      </c>
+      <c r="D24" s="9">
+        <v>45</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="9">
+        <v>4</v>
+      </c>
+      <c r="I24" s="23">
+        <v>42</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>2</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="9">
+        <v>6</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="9">
+        <v>6</v>
+      </c>
+      <c r="I25" s="9">
+        <v>42</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>2</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="9">
+        <v>4</v>
+      </c>
+      <c r="D26" s="9">
+        <v>30</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="9">
+        <v>4</v>
+      </c>
+      <c r="I26" s="9">
+        <v>45</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>2</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="9">
+        <v>5</v>
+      </c>
+      <c r="D27" s="9">
+        <v>45</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="9">
+        <v>5</v>
+      </c>
+      <c r="I27" s="9">
+        <v>22</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>2</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="9">
+        <v>6</v>
+      </c>
+      <c r="D28" s="9">
+        <v>28</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="9">
+        <v>6</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="9"/>
+      <c r="L28" s="14"/>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>2</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="9">
+        <v>4</v>
+      </c>
+      <c r="D29" s="9">
+        <v>28</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="9">
+        <v>4</v>
+      </c>
+      <c r="I29" s="9">
+        <v>22</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="L29" s="14"/>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>2</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="9">
+        <v>6</v>
+      </c>
+      <c r="D30" s="9">
+        <v>27</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="9">
+        <v>6</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="9"/>
+      <c r="L30" s="14"/>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>3</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="9">
+        <v>3</v>
+      </c>
+      <c r="D31" s="9">
+        <v>28</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="9">
+        <v>3</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="9"/>
+      <c r="L31" s="14"/>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>3</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="9">
+        <v>1</v>
+      </c>
+      <c r="D32" s="9">
+        <v>41</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="9">
+        <v>1</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L32" s="14"/>
+    </row>
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>3</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="9">
+        <v>2</v>
+      </c>
+      <c r="D33" s="9">
+        <v>41</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="9">
+        <v>2</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" s="14"/>
+    </row>
+    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>4</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="9">
+        <v>3</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="9">
+        <v>3</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="9"/>
+      <c r="L34" s="14"/>
+    </row>
+    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>4</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="9">
+        <v>5</v>
+      </c>
+      <c r="D35" s="9">
+        <v>43</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="9">
+        <v>5</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L35" s="14"/>
+    </row>
+    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>4</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="9">
+        <v>6</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="9">
+        <v>6</v>
+      </c>
+      <c r="I36" s="9">
+        <v>43</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" s="14"/>
+    </row>
+    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>4</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="9">
+        <v>4</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="9">
+        <v>4</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L37" s="14"/>
+    </row>
+    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>4</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="9">
+        <v>5</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="9">
+        <v>5</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38" s="14"/>
+    </row>
+    <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>4</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="9">
+        <v>6</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="9">
+        <v>6</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="9"/>
+      <c r="L39" s="14"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>5</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="9">
+        <v>4</v>
+      </c>
+      <c r="D40" s="9">
+        <v>111</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="9">
+        <v>4</v>
+      </c>
+      <c r="I40" s="22"/>
+      <c r="J40" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="9"/>
+      <c r="L40" s="14"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="14"/>
+    </row>
+    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+    </row>
+    <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="29"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+    </row>
+    <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="E44:K44"/>
+    <mergeCell ref="E42:K42"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="M18:N18"/>
+  </mergeCells>
+  <pageMargins left="0.24" right="0.24" top="0.2" bottom="0.28999999999999998" header="0.2" footer="0.2"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>